--- a/etf_dfs/EGPT.xlsx
+++ b/etf_dfs/EGPT.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>EGPT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,5005 +426,5058 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EGPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>80.31999969482422</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>81.27999877929688</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>80.31999969482422</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>81.27999877929688</v>
       </c>
-      <c r="F2">
-        <v>61.03235626220703</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>61.03237152099609</v>
+      </c>
+      <c r="G2" t="n">
         <v>350</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>80.63999938964844</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>81.63999938964844</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>80.63999938964844</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80.76000213623047</v>
       </c>
-      <c r="F3">
-        <v>60.64189147949219</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>60.64189910888672</v>
+      </c>
+      <c r="G3" t="n">
         <v>550</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>-0.006397596590501653</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>86.83999633789062</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>86.83999633789062</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>85.68000030517578</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>85.83999633789062</v>
       </c>
-      <c r="F4">
-        <v>64.45641326904297</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>64.4564208984375</v>
+      </c>
+      <c r="G4" t="n">
         <v>1550</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.06290235348298956</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.04900246463285482</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>71.80000305175781</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>72</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>71.12000274658203</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>72</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>54.06410217285156</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>175</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-0.1612301599293232</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.1147540771380107</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>67.31999969482422</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>70.16000366210938</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>67.31999969482422</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>70.16000366210938</v>
       </c>
-      <c r="F6">
-        <v>52.68246841430664</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>52.68246459960938</v>
+      </c>
+      <c r="G6" t="n">
         <v>175</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-0.02555550469292533</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.09381294309610025</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>71.51999664306641</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>71.51999664306641</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>71.51999664306641</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>71.51999664306641</v>
       </c>
-      <c r="F7">
-        <v>53.70367050170898</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>53.70367431640625</v>
+      </c>
+      <c r="G7" t="n">
         <v>100</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.01938416348304028</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.08450149676753034</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>72.80000305175781</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>72.80000305175781</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>72.80000305175781</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>72.80000305175781</v>
       </c>
-      <c r="F8">
-        <v>54.66481781005859</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>54.66481018066406</v>
+      </c>
+      <c r="G8" t="n">
         <v>25</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.01789718216961766</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.0773310443559462</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>76.87999725341797</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>76.87999725341797</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>76</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>76.16000366210938</v>
       </c>
-      <c r="F9">
-        <v>57.18780517578125</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>57.18780136108398</v>
+      </c>
+      <c r="G9" t="n">
         <v>200</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.04615385260303828</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.07434000012601266</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>75.19999694824219</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>76.83999633789062</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>75.19999694824219</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>75.63999938964844</v>
       </c>
-      <c r="F10">
-        <v>56.79734802246094</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>56.79734039306641</v>
+      </c>
+      <c r="G10" t="n">
         <v>1100</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-0.006827786862615981</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.06882548301708728</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>77.95999908447266</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>78.27999877929688</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>77.08000183105469</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>77.08000183105469</v>
       </c>
-      <c r="F11">
-        <v>57.87862014770508</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>57.87862777709961</v>
+      </c>
+      <c r="G11" t="n">
         <v>1325</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.01903757870208711</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.06494985626320705</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>80.68000030517578</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>80.76000213623047</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>80.16000366210938</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>80.76000213623047</v>
       </c>
-      <c r="F12">
-        <v>61.12906646728516</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>61.12907791137695</v>
+      </c>
+      <c r="G12" t="n">
         <v>400</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.04774260791069618</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.06337134192276356</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>66.16000366210938</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>70</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>66</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>52.98458480834961</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>204725</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>-0.1332342973205957</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.07252587315312115</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>73.12000274658203</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>73.12000274658203</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>68.76000213623047</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>69.55999755859375</v>
       </c>
-      <c r="F14">
-        <v>52.65154266357422</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>52.65153884887695</v>
+      </c>
+      <c r="G14" t="n">
         <v>84500</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-0.006285749162946441</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.06916364995949098</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-0.1441929305698805</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-0.1441929305698805</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>64.59999847412109</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>64.76000213623047</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>63.79999923706055</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>64.63999938964844</v>
       </c>
-      <c r="F15">
-        <v>48.9274787902832</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>48.92748260498047</v>
+      </c>
+      <c r="G15" t="n">
         <v>29225</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>-0.07073028093195322</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.06829136109531621</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.1996037929690729</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.1996037929690729</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>59.47999954223633</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>59.79999923706055</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>59.11999893188477</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>59.40000152587891</v>
       </c>
-      <c r="F16">
-        <v>44.96120452880859</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>44.96120834350586</v>
+      </c>
+      <c r="G16" t="n">
         <v>8750</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.08106432415295894</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.06793495724439083</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-0.3080148641658416</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.3080148641658416</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>63.15999984741211</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>63.72000122070312</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>62.95999908447266</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>63.68000030517578</v>
       </c>
-      <c r="F17">
-        <v>48.20083236694336</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>48.20083618164062</v>
+      </c>
+      <c r="G17" t="n">
         <v>22125</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.07205384965238082</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.06963376813711246</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.115555551317003</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.115555551317003</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>61.72000122070312</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>61.72000122070312</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>61.2400016784668</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>61.56000137329102</v>
       </c>
-      <c r="F18">
-        <v>46.59615707397461</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>46.59615325927734</v>
+      </c>
+      <c r="G18" t="n">
         <v>5675</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>-0.03329144035372211</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.06744988199664628</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.1225769931574687</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.1225769931574687</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>56.79999923706055</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>57.27999877929688</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>56.63999938964844</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>56.95999908447266</v>
       </c>
-      <c r="F19">
-        <v>43.11431121826172</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>43.11431503295898</v>
+      </c>
+      <c r="G19" t="n">
         <v>16875</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>-0.07472388216700332</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.0668969905749755</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-0.2035793937639298</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>-0.2035793937639298</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>53</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>53.20000076293945</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>52.43999862670898</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>52.68000030517578</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>39.87468338012695</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>1750</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>-0.07514042921506303</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.0662594306815622</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>-0.2763736525158871</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>-0.2763736525158871</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>45.27999877929688</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>45.27999877929688</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>44.20000076293945</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>44.20000076293945</v>
       </c>
-      <c r="F21">
-        <v>33.45598220825195</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>33.45598602294922</v>
+      </c>
+      <c r="G21" t="n">
         <v>12575</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>-0.1609718962245938</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.0718911249848451</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>-0.4196428750314052</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>-0.4196428750314052</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>48.91999816894531</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>48.91999816894531</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>48.20000076293945</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>48.20000076293945</v>
       </c>
-      <c r="F22">
-        <v>36.48366928100586</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>36.48367691040039</v>
+      </c>
+      <c r="G22" t="n">
         <v>5225</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>0.09049773599447297</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.07489893237182975</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>-0.3627710053956482</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-0.3627710053956482</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>44.72000122070312</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>44.79999923706055</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>44.31999969482422</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>44.52000045776367</v>
       </c>
-      <c r="F23">
-        <v>33.69820022583008</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>33.69819259643555</v>
+      </c>
+      <c r="G23" t="n">
         <v>5700</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>-0.07634855284079789</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.07392522905737926</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>-0.4224182745176447</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>-0.4224182745176447</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>37.79999923706055</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>38.40000152587891</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>37.68000030517578</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>37.84000015258789</v>
       </c>
-      <c r="F24">
-        <v>29.51571083068848</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>29.51571464538574</v>
+      </c>
+      <c r="G24" t="n">
         <v>8125</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>-0.1500449289418389</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.07687280849130138</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>-0.531451223976477</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>-0.531451223976477</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>48</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>49.15999984741211</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>48</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>49</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>38.22066497802734</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>8175</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>0.294925999006606</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.1013153474646424</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>-0.3</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>55.52000045776367</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>56.43999862670898</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>55.52000045776367</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>56.2400016784668</v>
       </c>
-      <c r="F26">
-        <v>43.86796951293945</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>43.86796569824219</v>
+      </c>
+      <c r="G26" t="n">
         <v>9575</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>0.1477551362952407</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.1046406458167999</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>-0.1914893091953731</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>-0.1914893091953731</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>51.20000076293945</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>51.20000076293945</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>50.63999938964844</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>50.68000030517578</v>
       </c>
-      <c r="F27">
-        <v>39.53108596801758</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>39.53109359741211</v>
+      </c>
+      <c r="G27" t="n">
         <v>6425</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>-0.09886204138254551</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.1039627453546882</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>-0.2159653344103873</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>-0.2159653344103873</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>51.31999969482422</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>51.68000030517578</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>51.11999893188477</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>51.68000030517578</v>
       </c>
-      <c r="F28">
-        <v>40.31110382080078</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>40.31110000610352</v>
+      </c>
+      <c r="G28" t="n">
         <v>12250</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>0.01973164944708716</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.102072989906357</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>-0.1299663471782865</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>-0.1299663471782865</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>47.36000061035156</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>47.84000015258789</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>46.88000106811523</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>47.68000030517578</v>
       </c>
-      <c r="F29">
-        <v>37.1910514831543</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>37.19104766845703</v>
+      </c>
+      <c r="G29" t="n">
         <v>8000</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>-0.07739938034790217</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.1008692472241475</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>-0.2512562802029313</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>-0.2512562802029313</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>49.56000137329102</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>50.27999877929688</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>49.36000061035156</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>50.27999877929688</v>
       </c>
-      <c r="F30">
-        <v>39.21907806396484</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>39.21908187866211</v>
+      </c>
+      <c r="G30" t="n">
         <v>7500</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.05453016899076779</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.09984744788949847</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>-0.1832359054963925</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>-0.1832359054963925</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>50</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>50</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>49.52000045776367</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>49.84000015258789</v>
       </c>
-      <c r="F31">
-        <v>38.87587356567383</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>38.87588119506836</v>
+      </c>
+      <c r="G31" t="n">
         <v>1500</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>-0.008750967330773962</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.09805051139639052</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>-0.124999983257122</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>-0.124999983257122</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>56.72000122070312</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>57.88000106811523</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>56.40000152587891</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>57.43999862670898</v>
       </c>
-      <c r="F32">
-        <v>44.80398178100586</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>44.80397796630859</v>
+      </c>
+      <c r="G32" t="n">
         <v>49000</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>0.1524879303943274</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.1009288293455069</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.0903568392930616</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.0903568392930616</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>63.20000076293945</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>63.20000076293945</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>62.20000076293945</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>62.36000061035156</v>
       </c>
-      <c r="F33">
-        <v>48.64164352416992</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>48.64164733886719</v>
+      </c>
+      <c r="G33" t="n">
         <v>7150</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.0856546326823</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.1006099712128741</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.4108597179626927</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.4108597179626927</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>59.47999954223633</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>59.59999847412109</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>56.68000030517578</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>57.36000061035156</v>
       </c>
-      <c r="F34">
-        <v>44.74157333374023</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>44.74158096313477</v>
+      </c>
+      <c r="G34" t="n">
         <v>35475</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>-0.08017960152441073</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.09989197753892848</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.1900414876021155</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.1900414876021155</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>49.63999938964844</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>50.27999877929688</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>49.47999954223633</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>49.7599983215332</v>
       </c>
-      <c r="F35">
-        <v>38.81347274780273</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>38.81346893310547</v>
+      </c>
+      <c r="G35" t="n">
         <v>61675</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.132496551742484</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.1007494237394257</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.117699860958913</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0.117699860958913</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>51.84000015258789</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>52.40000152587891</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>51</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>51</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>42.66972351074219</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>9750</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>0.02491964871972674</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.09939137490690576</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>0.3477801214150389</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0.3477801214150389</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>49.43999862670898</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>50.88000106811523</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>49.43999862670898</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>49.72000122070312</v>
       </c>
-      <c r="F37">
-        <v>41.59880065917969</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>41.59879684448242</v>
+      </c>
+      <c r="G37" t="n">
         <v>15800</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>-0.02509801528033084</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.09795692509330849</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.01469390246332902</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.01469390246332902</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>48.43999862670898</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>48.47999954223633</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>48.08000183105469</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>48.08000183105469</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>40.22667694091797</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>10125</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>-0.03298470131504239</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.09662739227719926</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>-0.1450924538385356</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>-0.1450924538385356</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>45.20000076293945</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>45.20000076293945</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>44.43999862670898</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>45</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>37.64975738525391</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>24325</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>-0.06405993581026292</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.09568868314840213</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>-0.1120757748810768</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>-0.1120757748810768</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>44.72000122070312</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>44.72000122070312</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>44</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>44.47999954223633</v>
       </c>
-      <c r="F40">
-        <v>37.21469497680664</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>37.21469116210938</v>
+      </c>
+      <c r="G40" t="n">
         <v>6925</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-0.01155556572808158</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.09438673588248493</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>-0.1393188993889841</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>-0.1393188993889841</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>44</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>44.08000183105469</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>43</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>43.08000183105469</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>36.04336929321289</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>9825</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>-0.03147476901055857</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.09319135054692256</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>-0.09647647744712273</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>-0.09647647744712273</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>37</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>37.88000106811523</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>36.91999816894531</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>37.88000106811523</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>31.69272804260254</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>19575</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>-0.1207056764605562</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.09358004106470491</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>-0.2466188944357617</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>-0.2466188944357617</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>43.54999923706055</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>44.97000122070312</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>42.91999816894531</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>44.88999938964844</v>
       </c>
-      <c r="F43">
-        <v>37.55772018432617</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>37.5577278137207</v>
+      </c>
+      <c r="G43" t="n">
         <v>65300</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>0.1850580286132499</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.09752931755884878</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>-0.09931783201815314</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>-0.09931783201815314</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>45</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>45.04999923706055</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>44.08000183105469</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>44.40999984741211</v>
       </c>
-      <c r="F44">
-        <v>37.15612411499023</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>37.1561279296875</v>
+      </c>
+      <c r="G44" t="n">
         <v>30100</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>-0.0106927945814812</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.09633267709915705</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>-0.2268453880714069</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>-0.2268453880714069</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>48.09999847412109</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>48.56000137329102</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>48.09999847412109</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>48.29999923706055</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>40.41073989868164</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>9800</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>0.08759287104287439</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.09633291211879751</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>-0.2254650615086283</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>-0.2254650615086283</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>53.9900016784668</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>54.2400016784668</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>53.27000045776367</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>53.86999893188477</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>45.07093811035156</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>17300</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>0.1153209064763372</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.09699351365689617</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.06084382219893092</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.06084382219893092</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>51.72999954223633</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>51.79999923706055</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>51.40000152587891</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>51.7400016784668</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>43.28885269165039</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>10100</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>-0.03953958224709109</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.09602449583731996</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>0.03979106558925993</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>0.03979106558925993</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>53.90000152587891</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>54.93000030517578</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>53.54999923706055</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>53.70999908447266</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>45.7993278503418</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>14800</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>0.0380749389659516</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.09516967308186222</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>0.05313723695044414</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.05313723695044414</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>59.20000076293945</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>61.90000152587891</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>58.70000076293945</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>61.86000061035156</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>52.74895477294922</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>51100</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.151740861381527</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.09685431510360228</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>0.2441673188172291</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.2441673188172291</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>67.30000305175781</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>68.30999755859375</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>67.30000305175781</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>68.08999633789062</v>
       </c>
-      <c r="F50">
-        <v>58.06136322021484</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>58.06137466430664</v>
+      </c>
+      <c r="G50" t="n">
         <v>9300</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>0.1007112134831849</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.09694360980777128</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>0.4161812342925404</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.4161812342925404</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>66.81999969482422</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>66.88999938964844</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>65.51999664306641</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>66.65000152587891</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>56.83345794677734</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>23800</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>-0.02114840489733427</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.09597970690150279</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>0.4811111450195313</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.4811111450195313</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>69.51000213623047</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>70.38999938964844</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>69.51000213623047</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>70.30000305175781</v>
       </c>
-      <c r="F52">
-        <v>59.94587707519531</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>59.94586944580078</v>
+      </c>
+      <c r="G52" t="n">
         <v>2600</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>0.05476371256288237</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.0953063948793581</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>0.5804856963859431</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.5804856963859431</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>66.45999908447266</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>67.02999877929688</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>66.30000305175781</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>66.33999633789062</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>56.56911468505859</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>21100</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>-0.05633010728252263</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.0946947099769332</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>0.5399255691319103</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>0.5399255691319103</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>65.59999847412109</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>67.5</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>65.59999847412109</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>67.41999816894531</v>
       </c>
-      <c r="F54">
-        <v>57.49004745483398</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>57.49004364013672</v>
+      </c>
+      <c r="G54" t="n">
         <v>20700</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>0.01627979937704382</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.09378788474531025</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>0.7798309468817519</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>0.7798309468817519</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>70.41999816894531</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>70.72000122070312</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>69</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>70.72000122070312</v>
       </c>
-      <c r="F55">
-        <v>60.30400848388672</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>60.30401229858398</v>
+      </c>
+      <c r="G55" t="n">
         <v>49500</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>0.04894694662388543</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.09311864139590677</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>0.5754065979562264</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>0.5754065979562264</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>74</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>74.73999786376953</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>74</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>74.73999786376953</v>
       </c>
-      <c r="F56">
-        <v>63.73192596435547</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>63.73191833496094</v>
+      </c>
+      <c r="G56" t="n">
         <v>16400</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>0.0568438429535767</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.09254262637360403</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>0.6829542472544015</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>0.6829542472544015</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>73</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>73</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>72.16000366210938</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>72.27999877929688</v>
       </c>
-      <c r="F57">
-        <v>61.63424682617188</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>61.63423919677734</v>
+      </c>
+      <c r="G57" t="n">
         <v>10000</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>-0.03291409091229247</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.09180639531695108</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>0.4964803296277589</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>0.4964803296277589</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>67.44000244140625</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>68.23000335693359</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>66.80999755859375</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>68.19000244140625</v>
       </c>
-      <c r="F58">
-        <v>58.14664459228516</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>58.14663696289062</v>
+      </c>
+      <c r="G58" t="n">
         <v>3700</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>-0.05658545112015301</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.09130317265978342</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>0.2658252050019201</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>0.2658252050019201</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>67.75</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>68.09999847412109</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>67.75</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>68.09999847412109</v>
       </c>
-      <c r="F59">
-        <v>58.06989288330078</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>58.06989669799805</v>
+      </c>
+      <c r="G59" t="n">
         <v>2800</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>-0.001319899751616727</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.09048475594327655</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>0.3161962942583942</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>0.3161962942583942</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>59.0099983215332</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>59.29999923706055</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>58</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>58.29999923706055</v>
       </c>
-      <c r="F60">
-        <v>52.14983367919922</v>
-      </c>
-      <c r="G60">
+      <c r="F60" t="n">
+        <v>52.14983749389648</v>
+      </c>
+      <c r="G60" t="n">
         <v>11400</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>-0.1439060125792025</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.09167884446858722</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>0.08545895049018615</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>0.08545895049018615</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>61</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>62.79000091552734</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>61</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>62.77999877929688</v>
       </c>
-      <c r="F61">
-        <v>56.15723037719727</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>56.1572265625</v>
+      </c>
+      <c r="G61" t="n">
         <v>9800</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>0.07684390395992402</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.09145806511736654</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>0.01487226252615592</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>0.01487226252615592</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>59.0099983215332</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>59.0099983215332</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>57.81000137329102</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>57.81000137329102</v>
       </c>
-      <c r="F62">
-        <v>51.71152496337891</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>51.71152114868164</v>
+      </c>
+      <c r="G62" t="n">
         <v>1800</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>-0.07916529950052864</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.09124891794098461</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>-0.1509765827212861</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>-0.1509765827212861</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>56.52999877929688</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>56.52999877929688</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>56.06000137329102</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>56.2599983215332</v>
       </c>
-      <c r="F63">
-        <v>50.32504272460938</v>
-      </c>
-      <c r="G63">
+      <c r="F63" t="n">
+        <v>50.32503509521484</v>
+      </c>
+      <c r="G63" t="n">
         <v>900</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>-0.02681202239988068</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.09054263722209648</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>-0.1558890167513569</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>-0.1558890167513569</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>51.9900016784668</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>53.25</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>51.90999984741211</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>52.95000076293945</v>
       </c>
-      <c r="F64">
-        <v>47.36421966552734</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>47.36421203613281</v>
+      </c>
+      <c r="G64" t="n">
         <v>160800</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.05883394342951598</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.09008637590280573</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>-0.2467994528541423</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>-0.2467994528541423</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>53.22999954223633</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>54.04000091552734</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>52.79000091552734</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>52.88000106811523</v>
       </c>
-      <c r="F65">
-        <v>47.30160140991211</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>47.30159759521484</v>
+      </c>
+      <c r="G65" t="n">
         <v>4600</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>-0.001321996106055101</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.08935716395481393</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>-0.2028941213867328</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>-0.2028941213867328</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>48.2400016784668</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>48.59000015258789</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>47.90000152587891</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>48.29000091552734</v>
       </c>
-      <c r="F66">
-        <v>43.19580459594727</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>43.19580841064453</v>
+      </c>
+      <c r="G66" t="n">
         <v>1600</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>-0.0868003037041446</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.08926257390399402</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>-0.2837436632003579</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>-0.2837436632003579</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>45.72000122070312</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>45.84999847412109</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>45.72000122070312</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>45.84999847412109</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>41.01320266723633</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>7400</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>-0.05052810923889794</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.08874817203306956</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>-0.3516685848034373</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>-0.3516685848034373</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>39.70000076293945</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>40.4900016784668</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>39.09999847412109</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>39.34999847412109</v>
       </c>
-      <c r="F68">
-        <v>35.19889831542969</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>35.19889450073242</v>
+      </c>
+      <c r="G68" t="n">
         <v>4200</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>-0.1417666350342142</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.08965809560071691</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>-0.4735081669945278</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>-0.4735081669945278</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>39.88000106811523</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>39.88000106811523</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>39.15000152587891</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>39.15000152587891</v>
       </c>
-      <c r="F69">
-        <v>35.02000427246094</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>35.02000045776367</v>
+      </c>
+      <c r="G69" t="n">
         <v>500</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>-0.005082514764866319</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.08897659939937258</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.4583563615513975</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.4583563615513975</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>39.9900016784668</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>40</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>39.75</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>40</v>
       </c>
-      <c r="F70">
-        <v>35.78033447265625</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>35.78033065795898</v>
+      </c>
+      <c r="G70" t="n">
         <v>3300</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>0.02171132671755394</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.0883788022348088</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.4134037458882499</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.4134037458882499</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>35.5099983215332</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>35.52999877929688</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>35.38999938964844</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>35.52999877929688</v>
       </c>
-      <c r="F71">
-        <v>31.78187942504883</v>
-      </c>
-      <c r="G71">
+      <c r="F71" t="n">
+        <v>31.7818775177002</v>
+      </c>
+      <c r="G71" t="n">
         <v>1200</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>-0.1117500305175781</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.08863518702723545</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>-0.4782672602731592</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>-0.4782672602731592</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>38.2599983215332</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>38.83000183105469</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>36.88999938964844</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>38.20999908447266</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>34.74672317504883</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>18000</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.07542922592886225</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.08855541695429396</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>-0.3445969196482758</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>-0.3445969196482758</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>33.9900016784668</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>33.9900016784668</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>33.63999938964844</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>33.97999954223633</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>30.90011978149414</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>8800</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>-0.1107039948596928</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.0887790325268962</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>-0.4587448199594104</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>-0.4587448199594104</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>34.5</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>34.5</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>34.5</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>34.5</v>
       </c>
-      <c r="F74">
-        <v>31.37298965454102</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>31.37299156188965</v>
+      </c>
+      <c r="G74" t="n">
         <v>100</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>0.01530313315976728</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.08819581981956402</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>-0.4032174506064022</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>-0.4032174506064022</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>38.97999954223633</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>38.97999954223633</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>37.61000061035156</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>37.61000061035156</v>
       </c>
-      <c r="F75">
-        <v>34.20110321044922</v>
-      </c>
-      <c r="G75">
+      <c r="F75" t="n">
+        <v>34.20111083984375</v>
+      </c>
+      <c r="G75" t="n">
         <v>1800</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>0.09014494522758154</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.08833221586138557</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>-0.3314965920296421</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>-0.3314965920296421</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>39</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>39.18999862670898</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>38.5</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>38.65999984741211</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>35.15593719482422</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="n">
         <v>35900</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>0.02791808614785163</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.08781744834479094</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>-0.2698772560836136</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>-0.2698772560836136</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>37</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>37.9900016784668</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>37</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>37.54999923706055</v>
       </c>
-      <c r="F77">
-        <v>34.14654159545898</v>
-      </c>
-      <c r="G77">
+      <c r="F77" t="n">
+        <v>34.14654541015625</v>
+      </c>
+      <c r="G77" t="n">
         <v>6600</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>-0.02871186277114968</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.08726063497289729</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>-0.289901692916155</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>-0.289901692916155</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>35.08000183105469</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>35.36000061035156</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>34.5</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>35.34999847412109</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>32.14594650268555</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>4500</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>-0.058588570110226</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.08688227504888979</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>-0.2679644273364566</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>-0.2679644273364566</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>38.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>39.18999862670898</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>38.47999954223633</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>39</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>35.46511840820312</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>10300</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>0.103253230082909</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.08722233904814441</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>-0.1494001897947153</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>-0.1494001897947153</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>39.34000015258789</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>39.66999816894531</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>39.06999969482422</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>39.08000183105469</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>35.53786849975586</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>79800</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>0.002051329001402147</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.08665866479250971</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>-0.006861414321120529</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>-0.006861414321120529</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>37.45000076293945</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>38.11000061035156</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>37.16999816894531</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>37.38999938964844</v>
       </c>
-      <c r="F81">
-        <v>34.00104522705078</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>34.00104141235352</v>
+      </c>
+      <c r="G81" t="n">
         <v>88300</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>-0.04324468685319505</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.08620494754477838</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>-0.04495535294084407</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>-0.04495535294084407</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>37.08000183105469</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>37.59999847412109</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>37.08000183105469</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>37.33000183105469</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>33.94648742675781</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>65300</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>-0.00160464187144016</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.08565913033782301</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>-0.06674995422363283</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>-0.06674995422363283</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>26.65999984741211</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>26.65999984741211</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>26</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>26.20000076293945</v>
       </c>
-      <c r="F83">
-        <v>23.82528686523438</v>
-      </c>
-      <c r="G83">
+      <c r="F83" t="n">
+        <v>23.82528495788574</v>
+      </c>
+      <c r="G83" t="n">
         <v>51600</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>-0.2981516346687192</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.09109710734290154</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>-0.2625949433410608</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>-0.2625949433410608</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>26.5</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>26.5</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>26.13999938964844</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="F84">
-        <v>24.00715827941895</v>
-      </c>
-      <c r="G84">
+      <c r="F84" t="n">
+        <v>24.00715637207031</v>
+      </c>
+      <c r="G84" t="n">
         <v>24900</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>0.007633543884232319</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.09055331164732305</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>-0.3090813857344895</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>-0.3090813857344895</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>26.31999969482422</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>26.78000068664551</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>26.31999969482422</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>26.42000007629395</v>
       </c>
-      <c r="F85">
-        <v>24.02534675598145</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>24.02534484863281</v>
+      </c>
+      <c r="G85" t="n">
         <v>8400</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>0.0007575931080556764</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.09000651644262012</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>-0.2224838012886222</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>-0.2224838012886222</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>28.5</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>28.70000076293945</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>28.23999977111816</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>28.38999938964844</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>25.81678581237793</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>56600</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>0.07456469748923755</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.08993033809786577</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>-0.1771014669667119</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>-0.1771014669667119</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>28.20000076293945</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>28.65999984741211</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>28.20000076293945</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>28.35000038146973</v>
       </c>
-      <c r="F87">
-        <v>25.78041458129883</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>25.78041076660156</v>
+      </c>
+      <c r="G87" t="n">
         <v>38200</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>-0.001408911906961685</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.08939663759624038</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>-0.2462111161554505</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>-0.2462111161554505</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>27.20999908447266</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>27.86000061035156</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>27.14999961853027</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>27.6299991607666</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>25.12567329406738</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>3700</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>-0.02539686811340347</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.08888833458177503</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>-0.2853078305788936</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>-0.2853078305788936</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>28.70999908447266</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>28.70999908447266</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>28.29999923706055</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>28.29999923706055</v>
       </c>
-      <c r="F89">
-        <v>25.73494529724121</v>
-      </c>
-      <c r="G89">
+      <c r="F89" t="n">
+        <v>25.73494338989258</v>
+      </c>
+      <c r="G89" t="n">
         <v>19400</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>0.02424900820284193</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.08843975812060632</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>-0.2463382207174739</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>-0.2463382207174739</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>27.28000068664551</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>28</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>27.28000068664551</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>27.80999946594238</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>25.28935813903809</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="n">
         <v>13200</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>-0.01731448001159241</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.08793547146676604</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>-0.2132955964255152</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>-0.2132955964255152</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>26.79999923706055</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>26.98999977111816</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>26.67000007629395</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>26.93000030517578</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>24.48912048339844</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="n">
         <v>13300</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>-0.03164326420949037</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.08746962850758719</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>-0.3094871716621594</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>-0.3094871716621594</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>27</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>27.10000038146973</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>27</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>27.10000038146973</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>24.64371299743652</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>3700</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>0.006312665219735392</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.08699083711632123</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>-0.3065506880315734</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>-0.3065506880315734</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>29.18000030517578</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>29.20000076293945</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>29.04999923706055</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>29.14999961853027</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>26.50790405273438</v>
       </c>
-      <c r="G93">
+      <c r="G93" t="n">
         <v>3700</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>0.07564572723999974</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.08695293559466155</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>-0.2203797781660152</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>-0.2203797781660152</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>31.68000030517578</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>31.70999908447266</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>31.35000038146973</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>31.44000053405762</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>28.5903434753418</v>
       </c>
-      <c r="G94">
+      <c r="G94" t="n">
         <v>26500</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>0.0785592091079006</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.08693705503486109</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>-0.157781971821314</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>-0.157781971821314</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>30.76000022888184</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>32.65999984741211</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>30.76000022888184</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>32.65999984741211</v>
       </c>
-      <c r="F95">
-        <v>29.69976043701172</v>
-      </c>
-      <c r="G95">
+      <c r="F95" t="n">
+        <v>29.69976425170898</v>
+      </c>
+      <c r="G95" t="n">
         <v>9100</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>0.03880404874780208</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.08659064380604319</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>0.2465648433724661</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>0.2465648433724661</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>32.84000015258789</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>33</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>32.61000061035156</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>32.70000076293945</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>29.9672908782959</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="n">
         <v>7700</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>0.001224767780594771</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.08612705374516291</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>0.2386364104333996</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>0.2386364104333996</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>34.0099983215332</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>34.0099983215332</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>33.15999984741211</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>33.58000183105469</v>
       </c>
-      <c r="F97">
-        <v>30.77375221252441</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>30.77375030517578</v>
+      </c>
+      <c r="G97" t="n">
         <v>19100</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>0.02691134702090237</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.08573385122833488</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>0.2710068786557365</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>0.2710068786557365</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>33.84999847412109</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>34.04000091552734</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>33.22999954223633</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>34.02999877929688</v>
       </c>
-      <c r="F98">
-        <v>31.18613815307617</v>
-      </c>
-      <c r="G98">
+      <c r="F98" t="n">
+        <v>31.18614196777344</v>
+      </c>
+      <c r="G98" t="n">
         <v>8100</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>0.01340074221872234</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.08530338372686622</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>0.1986614833005207</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>0.1986614833005207</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>38.54000091552734</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>39.15999984741211</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>38.54000091552734</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>39.02000045776367</v>
       </c>
-      <c r="F99">
-        <v>35.75912857055664</v>
-      </c>
-      <c r="G99">
+      <c r="F99" t="n">
+        <v>35.75913238525391</v>
+      </c>
+      <c r="G99" t="n">
         <v>37300</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>0.1466353763580681</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.08624994259136785</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>0.3763668406603664</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>0.3763668406603664</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>40.06000137329102</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>40.36000061035156</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>39.90999984741211</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>39.90999984741211</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>36.57475662231445</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="n">
         <v>39500</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>0.02280880008219888</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.08584628434591127</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>0.4444444827954457</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>0.4444444827954457</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>36.16999816894531</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>36.16999816894531</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>35.68999862670898</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>35.72000122070312</v>
       </c>
-      <c r="F101">
-        <v>32.73490905761719</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>32.73491287231445</v>
+      </c>
+      <c r="G101" t="n">
         <v>21200</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>-0.1049861849844301</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.08601376051857579</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>0.2621908898826273</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>0.2621908898826273</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>36.09999847412109</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>36.27000045776367</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>35.90999984741211</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>35.90999984741211</v>
       </c>
-      <c r="F102">
-        <v>32.90903472900391</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>32.90903091430664</v>
+      </c>
+      <c r="G102" t="n">
         <v>26400</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>0.005319110308396713</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.08558393601543163</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>0.2912621552326682</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>0.2912621552326682</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>33.72000122070312</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>34.11999893188477</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>33.72000122070312</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>34.02000045776367</v>
       </c>
-      <c r="F103">
-        <v>31.17697715759277</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>31.17697906494141</v>
+      </c>
+      <c r="G103" t="n">
         <v>11300</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>-0.05263156217430731</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.08528978307256591</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>0.2632751604991714</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>0.2632751604991714</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>34</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>34.02000045776367</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>33.90999984741211</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>33.91999816894531</v>
       </c>
-      <c r="F104">
-        <v>31.08533477783203</v>
-      </c>
-      <c r="G104">
+      <c r="F104" t="n">
+        <v>31.0853328704834</v>
+      </c>
+      <c r="G104" t="n">
         <v>3000</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>-0.002939514622949946</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.08486673467553556</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>0.2516604314197324</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>0.2516604314197324</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>31.39999961853027</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>31.39999961853027</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>31.1299991607666</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>31.25</v>
       </c>
-      <c r="F105">
-        <v>28.63846397399902</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>28.63846588134766</v>
+      </c>
+      <c r="G105" t="n">
         <v>7500</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>-0.07871457290908024</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.08476223734212107</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>0.07204118040999163</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>0.07204118040999163</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>27.54999923706055</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>27.54999923706055</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>27.51000022888184</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>27.54999923706055</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>25.2476692199707</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="n">
         <v>1400</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>-0.1184000244140625</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.08507156824204155</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>-0.1237277745203342</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>-0.1237277745203342</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>29.23999977111816</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>29.39999961853027</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>28.78000068664551</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>29.39999961853027</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>26.94306755065918</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>2800</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>0.0671506509147588</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.08496787621801515</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>-0.09981629651293922</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>-0.09981629651293922</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>27.81999969482422</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>27.81999969482422</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>27.31999969482422</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>27.69000053405762</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>25.81385231018066</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="n">
         <v>6200</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>-0.05816323492041398</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.08471390460162272</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>-0.1532110125991165</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>-0.1532110125991165</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>31.11000061035156</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>31.55999946594238</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>31.11000061035156</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>31.52000045776367</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>29.38434791564941</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>68100</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>0.1383170765560406</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.08546777166691609</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>-0.06134607686012494</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>-0.06134607686012494</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>33.04999923706055</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>33.20000076293945</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>32.52999877929688</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>32.52999877929688</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>30.32591438293457</v>
       </c>
-      <c r="G110">
+      <c r="G110" t="n">
         <v>19300</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>0.03204309349191115</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.08514268497844621</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>-0.04407875562171837</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>-0.04407875562171837</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>32.84999847412109</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>33.16999816894531</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>32.84999847412109</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>33.04999923706055</v>
       </c>
-      <c r="F111">
-        <v>30.8106803894043</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>30.81068229675293</v>
+      </c>
+      <c r="G111" t="n">
         <v>7600</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.01598525906169468</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.08477097279405746</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>-0.1529984918161449</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>-0.1529984918161449</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>32.52000045776367</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>32.52000045776367</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>31.98999977111816</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>32.11000061035156</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>29.93437194824219</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>13900</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>-0.02844171402143092</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.08441180706042971</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>-0.195439721044407</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>-0.195439721044407</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>29.3799991607666</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>29.79999923706055</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>29.27000045776367</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>29.76000022888184</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>27.74359703063965</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>57100</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>-0.07318593387731476</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.08427737424852327</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>-0.1668533255359158</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>-0.1668533255359158</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>30.81999969482422</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>30.98999977111816</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>30.54000091552734</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>30.8799991607666</v>
       </c>
-      <c r="F114">
-        <v>28.78771018981934</v>
-      </c>
-      <c r="G114">
+      <c r="F114" t="n">
+        <v>28.7877082824707</v>
+      </c>
+      <c r="G114" t="n">
         <v>10200</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>0.03763437242173873</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.08399557145839849</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>-0.1400724229467798</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>-0.1400724229467798</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>29.47999954223633</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>29.78000068664551</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>29</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>29.3700008392334</v>
       </c>
-      <c r="F115">
-        <v>27.38002395629883</v>
-      </c>
-      <c r="G115">
+      <c r="F115" t="n">
+        <v>27.3800220489502</v>
+      </c>
+      <c r="G115" t="n">
         <v>22100</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>-0.04889891070501307</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.08372139245690527</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>-0.1366842902986822</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>-0.1366842902986822</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>32.72999954223633</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>32.84999847412109</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>32.72000122070312</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>32.84999847412109</v>
       </c>
-      <c r="F116">
-        <v>30.62423133850098</v>
-      </c>
-      <c r="G116">
+      <c r="F116" t="n">
+        <v>30.62423324584961</v>
+      </c>
+      <c r="G116" t="n">
         <v>2400</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>0.1184881694058042</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.08415448344541822</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>-0.03154480402666504</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>-0.03154480402666504</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>30.29999923706055</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>30.95999908447266</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>30.29999923706055</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>30.94000053405762</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>28.84364700317383</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>10600</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>-0.05814301457481508</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.08393454892513805</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>-0.009919982910156278</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>-0.009919982910156278</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>31.20999908447266</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>31.8799991607666</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>30.95000076293945</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>31.76000022888184</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>29.60808563232422</v>
       </c>
-      <c r="G118">
+      <c r="G118" t="n">
         <v>17200</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>0.02650289853491095</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.0836194305959764</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>0.1528131073832464</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>0.1528131073832464</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>29.98999977111816</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>30.39999961853027</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>29.52000045776367</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>29.78000068664551</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>27.76224327087402</v>
       </c>
-      <c r="G119">
+      <c r="G119" t="n">
         <v>35900</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>-0.06234255440702929</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.0834294417439147</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>0.01292520656618401</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>0.01292520656618401</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>28.90999984741211</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>29.18000030517578</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>28.63999938964844</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>28.96999931335449</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>27.5629768371582</v>
       </c>
-      <c r="G120">
+      <c r="G120" t="n">
         <v>23700</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>-0.02719950821405626</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.08309715974816378</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>0.04622602941890608</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>0.04622602941890608</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>28.5</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>28.43000030517578</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>27.2394905090332</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>4000</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>-0.01173628445448938</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.08274644805064782</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>-0.09168785707568849</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>-0.09168785707568849</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>26.17000007629395</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>27.02000045776367</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>25.11000061035156</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>26.25</v>
       </c>
-      <c r="F122">
-        <v>24.97508239746094</v>
-      </c>
-      <c r="G122">
+      <c r="F122" t="n">
+        <v>24.97508430480957</v>
+      </c>
+      <c r="G122" t="n">
         <v>24800</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>-0.08312955747578421</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.08270383891503891</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>-0.1930525365802862</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>-0.1930525365802862</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>20.3799991607666</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>20.80999946594238</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>20</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>20</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>19.02863502502441</v>
       </c>
-      <c r="G123">
+      <c r="G123" t="n">
         <v>7100</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>-0.2380952380952381</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.08537602687603914</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>-0.3948562643967313</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>-0.3948562643967313</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>22.78000068664551</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>23</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>22.72999954223633</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>22.85000038146973</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>21.74021530151367</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>1900</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>0.1425000190734864</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.08623540377828014</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>-0.2883836827426473</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>-0.2883836827426473</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>22.11000061035156</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>22.20000076293945</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>21.8700008392334</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>22.20000076293945</v>
       </c>
-      <c r="F125">
-        <v>21.12178421020508</v>
-      </c>
-      <c r="G125">
+      <c r="F125" t="n">
+        <v>21.12178611755371</v>
+      </c>
+      <c r="G125" t="n">
         <v>800</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>-0.02844637232730174</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.08508672894207446</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>-0.2540322381652895</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>-0.2540322381652895</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>23.29000091552734</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>23.56999969482422</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>23.29000091552734</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>23.39999961853027</v>
       </c>
-      <c r="F126">
-        <v>22.26350402832031</v>
-      </c>
-      <c r="G126">
+      <c r="F126" t="n">
+        <v>22.26350212097168</v>
+      </c>
+      <c r="G126" t="n">
         <v>800</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>0.05405400064643651</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.08524398941985036</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>-0.2422279710337478</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>-0.2422279710337478</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>24.05999946594238</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>24.55999946594238</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>24.05999946594238</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>24.32999992370605</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>23.14833450317383</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>900</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>0.03974360343319505</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.0853140425547296</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>-0.171603703490357</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>-0.171603703490357</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>25.70000076293945</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>25.85000038146973</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>25.63999938964844</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>25.85000038146973</v>
       </c>
-      <c r="F128">
-        <v>24.59451293945312</v>
-      </c>
-      <c r="G128">
+      <c r="F128" t="n">
+        <v>24.59451103210449</v>
+      </c>
+      <c r="G128" t="n">
         <v>2600</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>0.06247433056021712</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.08551258106317638</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>-0.2130897539665305</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>-0.2130897539665305</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>24.95000076293945</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>25.19000053405762</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>24.93000030517578</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>25.19000053405762</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>23.96656608581543</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>1900</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>-0.02553190861402166</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.08540326649341645</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>-0.18584356498865</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>-0.18584356498865</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>23.88999938964844</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>24.26000022888184</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>23.80999946594238</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>24.13999938964844</v>
       </c>
-      <c r="F130">
-        <v>22.96756172180176</v>
-      </c>
-      <c r="G130">
+      <c r="F130" t="n">
+        <v>22.96756362915039</v>
+      </c>
+      <c r="G130" t="n">
         <v>4900</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>-0.04168325216942914</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.08546708544403456</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>-0.2399244579445544</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>-0.2399244579445544</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>26.22999954223633</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>26.71999931335449</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>25.61000061035156</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>25.89999961853027</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>24.64208221435547</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>8600</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>0.07290804777884752</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.08573961146850932</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>-0.1302888172818335</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>-0.1302888172818335</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>25.51000022888184</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>25.54000091552734</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>24.89999961853027</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>25</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>24.38151168823242</v>
       </c>
-      <c r="G132">
+      <c r="G132" t="n">
         <v>5500</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="n">
         <v>-0.03474902053227691</v>
       </c>
-      <c r="I132">
+      <c r="I132" t="n">
         <v>0.08564110057535375</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="n">
         <v>-0.1370382950449162</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="n">
         <v>-0.1370382950449162</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>26.6299991607666</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>27.02000045776367</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>26.6299991607666</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>27.02000045776367</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>26.35153770446777</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="n">
         <v>600</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="n">
         <v>0.08080001831054684</v>
       </c>
-      <c r="I133">
+      <c r="I133" t="n">
         <v>0.08519713628389293</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="n">
         <v>-0.05623467517278891</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="n">
         <v>-0.05623467517278891</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>26.67000007629395</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>26.67000007629395</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>26.47999954223633</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>26.47999954223633</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>25.82489585876465</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>500</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="n">
         <v>-0.01998522969573768</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>0.08520907734805877</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>0.008761887323288642</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="n">
         <v>0.008761887323288642</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>24.93000030517578</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>25.59000015258789</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>24.93000030517578</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>25.38999938964844</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>24.76186180114746</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>1000</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="n">
         <v>-0.04116314846793367</v>
       </c>
-      <c r="I135">
+      <c r="I135" t="n">
         <v>0.08505814636203059</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="n">
         <v>0.2694999694824218</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="n">
         <v>0.2694999694824218</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>24.17000007629395</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>24.78000068664551</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>23.86000061035156</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>23.98999977111816</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>23.39649772644043</v>
       </c>
-      <c r="G136">
+      <c r="G136" t="n">
         <v>294400</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="n">
         <v>-0.05513980512741001</v>
       </c>
-      <c r="I136">
+      <c r="I136" t="n">
         <v>0.08489380882637979</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="n">
         <v>0.0498905632655009</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="n">
         <v>0.0498905632655009</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>24.53000068664551</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>24.6200008392334</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>24.32999992370605</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>24.44000053405762</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>23.83536529541016</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>3700</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="n">
         <v>0.01875784773792355</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>0.08463215636517132</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>0.1009008871232837</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>0.1009008871232837</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>25.13999938964844</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>25.15999984741211</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>24.82999992370605</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>24.95999908447266</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>24.34249877929688</v>
       </c>
-      <c r="G138">
+      <c r="G138" t="n">
         <v>19400</v>
       </c>
-      <c r="H138">
+      <c r="H138" t="n">
         <v>0.02127653596776358</v>
       </c>
-      <c r="I138">
+      <c r="I138" t="n">
         <v>0.08462187042891496</v>
       </c>
-      <c r="J138">
+      <c r="J138" t="n">
         <v>0.06666664493049956</v>
       </c>
-      <c r="K138">
+      <c r="K138" t="n">
         <v>0.06666664493049956</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>26</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>26</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>25.81999969482422</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>25.81999969482422</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="n">
         <v>25.18122482299805</v>
       </c>
-      <c r="G139">
+      <c r="G139" t="n">
         <v>500</v>
       </c>
-      <c r="H139">
+      <c r="H139" t="n">
         <v>0.03445515392212339</v>
       </c>
-      <c r="I139">
+      <c r="I139" t="n">
         <v>0.0844405335397819</v>
       </c>
-      <c r="J139">
+      <c r="J139" t="n">
         <v>0.06124125671148795</v>
       </c>
-      <c r="K139">
+      <c r="K139" t="n">
         <v>0.06124125671148795</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>25.81999969482422</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>26.6200008392334</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>25.81999969482422</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>26.46999931335449</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="n">
         <v>25.81514358520508</v>
       </c>
-      <c r="G140">
+      <c r="G140" t="n">
         <v>10600</v>
       </c>
-      <c r="H140">
+      <c r="H140" t="n">
         <v>0.02517426902451003</v>
       </c>
-      <c r="I140">
+      <c r="I140" t="n">
         <v>0.08421632344607036</v>
       </c>
-      <c r="J140">
+      <c r="J140" t="n">
         <v>0.02398448443850709</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="n">
         <v>0.02398448443850709</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>25.1299991607666</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>25.57999992370605</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>25.06999969482422</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>25.06999969482422</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>24.44977951049805</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="n">
         <v>1700</v>
       </c>
-      <c r="H141">
+      <c r="H141" t="n">
         <v>-0.05289005118424595</v>
       </c>
-      <c r="I141">
+      <c r="I141" t="n">
         <v>0.0830735269722372</v>
       </c>
-      <c r="J141">
+      <c r="J141" t="n">
         <v>-0.00476382837194278</v>
       </c>
-      <c r="K141">
+      <c r="K141" t="n">
         <v>-0.00476382837194278</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>26.20000076293945</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>26.20000076293945</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>26</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>26.01000022888184</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="n">
         <v>25.36652374267578</v>
       </c>
-      <c r="G142">
+      <c r="G142" t="n">
         <v>700</v>
       </c>
-      <c r="H142">
+      <c r="H142" t="n">
         <v>0.03749503571999169</v>
       </c>
-      <c r="I142">
+      <c r="I142" t="n">
         <v>0.08272185701441992</v>
       </c>
-      <c r="J142">
+      <c r="J142" t="n">
         <v>0.07746482545626243</v>
       </c>
-      <c r="K142">
+      <c r="K142" t="n">
         <v>0.07746482545626243</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>25.92000007629395</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>26.26000022888184</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>25.75</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>26.10000038146973</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="n">
         <v>25.45429801940918</v>
       </c>
-      <c r="G143">
+      <c r="G143" t="n">
         <v>18200</v>
       </c>
-      <c r="H143">
+      <c r="H143" t="n">
         <v>0.003460213448516436</v>
       </c>
-      <c r="I143">
+      <c r="I143" t="n">
         <v>0.0824367975422934</v>
       </c>
-      <c r="J143">
+      <c r="J143" t="n">
         <v>0.007722037292863915</v>
       </c>
-      <c r="K143">
+      <c r="K143" t="n">
         <v>0.007722037292863915</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>27.3700008392334</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>27.3700008392334</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="G144">
+      <c r="G144" t="n">
         <v>4300</v>
       </c>
-      <c r="H144">
+      <c r="H144" t="n">
         <v>0.03984670471181606</v>
       </c>
-      <c r="I144">
+      <c r="I144" t="n">
         <v>0.08136758362537487</v>
       </c>
-      <c r="J144">
+      <c r="J144" t="n">
         <v>0.08559997558593757</v>
       </c>
-      <c r="K144">
+      <c r="K144" t="n">
         <v>0.08559997558593757</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="D145">
-        <v>27</v>
-      </c>
-      <c r="E145">
-        <v>27</v>
-      </c>
-      <c r="F145">
-        <v>27</v>
-      </c>
-      <c r="G145">
-        <v>1327</v>
-      </c>
-      <c r="H145">
-        <v>-0.005158415357291224</v>
-      </c>
-      <c r="I145">
-        <v>0.07672380795335874</v>
-      </c>
-      <c r="J145">
-        <v>-0.0007402093791573083</v>
-      </c>
-      <c r="K145">
-        <v>-0.0007402093791573083</v>
+      <c r="D145" t="n">
+        <v>26.92000007629395</v>
+      </c>
+      <c r="E145" t="n">
+        <v>26.92000007629395</v>
+      </c>
+      <c r="F145" t="n">
+        <v>26.92000007629395</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-0.008106091315477459</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.07672532202963213</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.003700976305534898</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-0.003700976305534898</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>